--- a/techniqo/data_new_ticker/INDOSTAR.xlsx
+++ b/techniqo/data_new_ticker/INDOSTAR.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G575"/>
+  <dimension ref="A1:G577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20511,6 +20511,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>263.45</v>
+      </c>
+      <c r="C576" t="n">
+        <v>264.35</v>
+      </c>
+      <c r="D576" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="E576" t="n">
+        <v>260.15</v>
+      </c>
+      <c r="F576" t="n">
+        <v>9512</v>
+      </c>
+      <c r="G576" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>263.95</v>
+      </c>
+      <c r="C577" t="n">
+        <v>309</v>
+      </c>
+      <c r="D577" t="n">
+        <v>260.05</v>
+      </c>
+      <c r="E577" t="n">
+        <v>299.85</v>
+      </c>
+      <c r="F577" t="n">
+        <v>471721</v>
+      </c>
+      <c r="G577" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/INDOSTAR.xlsx
+++ b/techniqo/data_new_ticker/INDOSTAR.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20561,6 +20561,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>291</v>
+      </c>
+      <c r="C578" t="n">
+        <v>317</v>
+      </c>
+      <c r="D578" t="n">
+        <v>291</v>
+      </c>
+      <c r="E578" t="n">
+        <v>305.4</v>
+      </c>
+      <c r="F578" t="n">
+        <v>279213</v>
+      </c>
+      <c r="G578" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>305.4</v>
+      </c>
+      <c r="C579" t="n">
+        <v>310</v>
+      </c>
+      <c r="D579" t="n">
+        <v>295.1</v>
+      </c>
+      <c r="E579" t="n">
+        <v>301.3</v>
+      </c>
+      <c r="F579" t="n">
+        <v>70163</v>
+      </c>
+      <c r="G579" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
